--- a/resultaten/Opgave C/resultaten voor boxplot.xlsx
+++ b/resultaten/Opgave C/resultaten voor boxplot.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,95 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\Minor programmeren\Heuristieken\SmartGRID\powerhouses\resultaten\Opgave C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{216D5E0B-1B02-4A1A-84D3-39615A79DB0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D565B-3118-4741-B0B5-5D50ED48BF35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Blad2!$C$2</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Blad2!$C$3:$C$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Blad2!$E$2</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Blad2!$E$3:$E$22</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Blad2!$G$2</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Blad2!$G$3:$G$22</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Blad2!$I$2</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Blad2!$I$3:$I$22</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Blad2!$M$3:$M$22</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Blad2!$N$2</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Blad2!$N$3:$N$22</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Blad2!$O$2</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Blad2!$O$3:$O$22</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Blad2!$P$2</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Blad2!$P$3:$P$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad2!$M$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad2!$M$3:$M$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,12 +113,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>Kosten</t>
-  </si>
-  <si>
-    <t>Score</t>
   </si>
   <si>
     <t>Random</t>
@@ -54,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,6 +181,801 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>K-means and PPA</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+            </a:rPr>
+            <a:t>K-means and PPA</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{7566A99B-8FBD-4E65-93FE-41F5ABBEC74F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Random</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{100E1107-65C8-45A3-BA65-961BD8E8D8BB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>K-Means</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{647BAFB9-4F1A-428D-8296-9C97293CA21F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Random + PPA</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3DB8FA50-A25E-4538-A287-9D260D6BC99E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>K-means + PPA</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Fitness</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Fitness</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:minorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:spPr>
+    <a:ln w="25400" cap="rnd" cmpd="sng">
+      <a:noFill/>
+      <a:bevel/>
+    </a:ln>
+  </cx:spPr>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="374">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121916</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Grafiek 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5465E67C-CD89-4DD2-8992-9943CA432E6A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="542925" y="19050"/>
+              <a:ext cx="8589641" cy="3905250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,11 +1274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,21 +1286,21 @@
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -437,212 +1311,425 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>-1.522</v>
+      </c>
       <c r="D3">
         <v>39580</v>
       </c>
       <c r="E3" s="1">
         <v>5.0668756299999798E-2</v>
       </c>
+      <c r="G3">
+        <v>0.63988299999999998</v>
+      </c>
       <c r="H3">
         <v>40858</v>
       </c>
       <c r="I3">
         <v>0.99276643626426597</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>-1.522</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5.0668756299999798E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.63988299999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.99276643626426597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>-1.522</v>
+      </c>
       <c r="D4" s="1">
         <v>39661</v>
       </c>
       <c r="E4">
         <v>0.46933411960000099</v>
       </c>
+      <c r="G4">
+        <v>0.68600499999999998</v>
+      </c>
       <c r="H4">
         <v>40264</v>
       </c>
       <c r="I4">
         <v>0.981735897850331</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>-1.522</v>
+      </c>
+      <c r="N4">
+        <v>0.46933411960000099</v>
+      </c>
+      <c r="O4">
+        <v>0.68600499999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.981735897850331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>-2.9438</v>
+      </c>
       <c r="D5">
         <v>39697</v>
       </c>
       <c r="E5">
         <v>0.33553373873333298</v>
       </c>
+      <c r="G5">
+        <v>0.72709314000000003</v>
+      </c>
       <c r="H5">
         <v>41542</v>
       </c>
       <c r="I5">
         <v>0.97066177696282696</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>-2.9438</v>
+      </c>
+      <c r="N5">
+        <v>0.33553373873333298</v>
+      </c>
+      <c r="O5">
+        <v>0.72709314000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.97066177696282696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>-0.48299999999999998</v>
+      </c>
       <c r="D6">
         <v>39517</v>
       </c>
       <c r="E6">
         <v>0.46789403413333103</v>
       </c>
+      <c r="G6">
+        <v>0.77050810000000003</v>
+      </c>
       <c r="H6">
         <v>40597</v>
       </c>
       <c r="I6">
         <v>0.98682942499196902</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>-0.48299999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.46789403413333103</v>
+      </c>
+      <c r="O6">
+        <v>0.77050810000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.98682942499196902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>-0.627</v>
+      </c>
       <c r="D7">
         <v>39706</v>
       </c>
       <c r="E7">
         <v>0.36885151536666899</v>
       </c>
+      <c r="G7">
+        <v>0.72364399999999995</v>
+      </c>
       <c r="H7">
         <v>42037</v>
       </c>
       <c r="I7">
         <v>0.95879110448847704</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>-0.627</v>
+      </c>
+      <c r="N7">
+        <v>0.36885151536666899</v>
+      </c>
+      <c r="O7">
+        <v>0.72364399999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.95879110448847704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>-1.44</v>
+      </c>
       <c r="D8">
         <v>39589</v>
       </c>
       <c r="E8">
         <v>-0.25147102110000003</v>
       </c>
+      <c r="G8">
+        <v>0.64841340999999997</v>
+      </c>
       <c r="H8">
         <v>40480</v>
       </c>
       <c r="I8" s="1">
         <v>0.98693337635102396</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>-1.44</v>
+      </c>
+      <c r="N8">
+        <v>-0.25147102110000003</v>
+      </c>
+      <c r="O8">
+        <v>0.64841340999999997</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.98693337635102396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>-2.0710000000000002</v>
+      </c>
       <c r="D9">
         <v>39544</v>
       </c>
       <c r="E9">
         <v>-0.40186347623333102</v>
       </c>
+      <c r="G9">
+        <v>0.63512559999999996</v>
+      </c>
       <c r="H9">
         <v>40210</v>
       </c>
       <c r="I9" s="1">
         <v>0.99197946743663001</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>-2.0710000000000002</v>
+      </c>
+      <c r="N9">
+        <v>-0.40186347623333102</v>
+      </c>
+      <c r="O9">
+        <v>0.63512559999999996</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.99197946743663001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>-1.1499999999999999</v>
+      </c>
       <c r="D10">
         <v>39841</v>
       </c>
       <c r="E10">
         <v>0.39555475156666497</v>
       </c>
+      <c r="G10">
+        <v>0.71089999999999998</v>
+      </c>
       <c r="H10">
         <v>41281</v>
       </c>
       <c r="I10" s="1">
         <v>0.97226800000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.39555475156666497</v>
+      </c>
+      <c r="O10">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.97226800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>-1.2237</v>
+      </c>
       <c r="D11">
         <v>39760</v>
       </c>
       <c r="E11">
         <v>-1.1908000000000001</v>
       </c>
+      <c r="G11">
+        <v>0.63660000000000005</v>
+      </c>
       <c r="H11" s="1">
         <v>41146</v>
       </c>
       <c r="I11" s="1">
         <v>0.97566189771419098</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>-1.2237</v>
+      </c>
+      <c r="N11">
+        <v>-1.1908000000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.97566189771419098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>-0.89709000000000005</v>
+      </c>
       <c r="D12">
         <v>39652</v>
       </c>
       <c r="E12">
         <v>0.33553373886999999</v>
       </c>
+      <c r="G12">
+        <v>0.37890000000000001</v>
+      </c>
       <c r="H12" s="1">
         <v>41560</v>
       </c>
       <c r="I12" s="1">
         <v>0.96739853600000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>-0.89709000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.33553373886999999</v>
+      </c>
+      <c r="O12">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.96739853600000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>-0.58611000000000002</v>
+      </c>
       <c r="D13">
         <v>39760</v>
       </c>
       <c r="E13" s="1">
         <v>5.0668756299999798E-2</v>
       </c>
+      <c r="G13">
+        <v>0.69823999999999997</v>
+      </c>
       <c r="H13" s="1">
         <v>41056</v>
       </c>
       <c r="I13" s="1">
         <v>0.97387082494800004</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>-0.58611000000000002</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5.0668756299999798E-2</v>
+      </c>
+      <c r="O13">
+        <v>0.69823999999999997</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.97387082494800004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>-1.6879</v>
+      </c>
       <c r="D14">
         <v>39706</v>
       </c>
@@ -650,150 +1737,310 @@
         <v>0.46933411960000099</v>
       </c>
       <c r="F14" s="1"/>
+      <c r="G14">
+        <v>0.42367460000000001</v>
+      </c>
       <c r="H14" s="1">
         <v>41326</v>
       </c>
       <c r="I14" s="1">
         <v>0.97687564230000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>-1.6879</v>
+      </c>
+      <c r="N14">
+        <v>0.46933411960000099</v>
+      </c>
+      <c r="O14">
+        <v>0.42367460000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.97687564230000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>-0.8236</v>
+      </c>
       <c r="D15">
         <v>39643</v>
       </c>
       <c r="E15">
         <v>0.33553373873333298</v>
       </c>
+      <c r="G15">
+        <v>0.56986999999999999</v>
+      </c>
       <c r="H15" s="1">
         <v>41551</v>
       </c>
       <c r="I15" s="1">
         <v>0.96891361255999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>-0.8236</v>
+      </c>
+      <c r="N15">
+        <v>0.33553373873333298</v>
+      </c>
+      <c r="O15">
+        <v>0.56986999999999999</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.96891361255999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>-0.21457999999999999</v>
+      </c>
       <c r="D16">
         <v>39841</v>
       </c>
       <c r="E16">
         <v>-0.46789403413333103</v>
       </c>
+      <c r="G16">
+        <v>0.70686000000000004</v>
+      </c>
       <c r="H16" s="1">
         <v>40282</v>
       </c>
       <c r="I16" s="1">
         <v>0.99015654979900003</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>-0.21457999999999999</v>
+      </c>
+      <c r="N16">
+        <v>-0.46789403413333103</v>
+      </c>
+      <c r="O16">
+        <v>0.70686000000000004</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.99015654979900003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>-1.4687110000000001</v>
+      </c>
       <c r="D17">
         <v>39814</v>
       </c>
       <c r="E17">
         <v>0.36885151536666899</v>
       </c>
+      <c r="G17">
+        <v>0.68910000000000005</v>
+      </c>
       <c r="H17" s="1">
         <v>42100</v>
       </c>
       <c r="I17" s="1">
         <v>0.95700187251799995</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>-1.4687110000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.36885151536666899</v>
+      </c>
+      <c r="O17">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.95700187251799995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>-1.12605</v>
+      </c>
       <c r="D18">
         <v>39589</v>
       </c>
       <c r="E18">
         <v>-0.25147102110000003</v>
       </c>
+      <c r="G18">
+        <v>0.51479200000000003</v>
+      </c>
       <c r="H18" s="1">
         <v>41668</v>
       </c>
       <c r="I18" s="1">
         <v>0.96717428087000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>-1.12605</v>
+      </c>
+      <c r="N18">
+        <v>-0.25147102110000003</v>
+      </c>
+      <c r="O18">
+        <v>0.51479200000000003</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.96717428087000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>-1.4654</v>
+      </c>
       <c r="D19">
         <v>39517</v>
       </c>
       <c r="E19">
         <v>-0.40186347623333102</v>
       </c>
+      <c r="G19">
+        <v>0.69874000000000003</v>
+      </c>
       <c r="H19" s="1">
         <v>41056</v>
       </c>
       <c r="I19" s="1">
         <v>0.97999343999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>-1.4654</v>
+      </c>
+      <c r="N19">
+        <v>-0.40186347623333102</v>
+      </c>
+      <c r="O19">
+        <v>0.69874000000000003</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.97999343999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>-0.14369999999999999</v>
+      </c>
       <c r="D20">
         <v>39544</v>
       </c>
       <c r="E20">
         <v>0.39555475156666497</v>
       </c>
+      <c r="G20">
+        <v>0.67449999999999999</v>
+      </c>
       <c r="H20" s="1">
         <v>41191</v>
       </c>
       <c r="I20" s="1">
         <v>0.97562983690000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>-0.14369999999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.39555475156666497</v>
+      </c>
+      <c r="O20">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.97562983690000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="C21">
+        <v>-0.73624000000000001</v>
+      </c>
       <c r="D21">
         <v>39841</v>
       </c>
       <c r="E21">
         <v>-1.1908000000000001</v>
       </c>
+      <c r="G21">
+        <v>0.69214699999999996</v>
+      </c>
       <c r="H21" s="1">
         <v>40660</v>
       </c>
       <c r="I21" s="1">
         <v>0.98551903677188402</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>-0.73624000000000001</v>
+      </c>
+      <c r="N21">
+        <v>-1.1908000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.69214699999999996</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.98551903677188402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="C22">
+        <v>-1.1819999999999999</v>
+      </c>
       <c r="D22">
         <v>39697</v>
       </c>
       <c r="E22">
         <v>0.161277290466668</v>
       </c>
+      <c r="G22">
+        <v>0.67845</v>
+      </c>
       <c r="H22" s="1">
         <v>40777</v>
       </c>
       <c r="I22">
         <v>0.98223801065719296</v>
       </c>
+      <c r="M22">
+        <v>-1.1819999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.161277290466668</v>
+      </c>
+      <c r="O22">
+        <v>0.67845</v>
+      </c>
+      <c r="P22">
+        <v>0.98223801065719296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>